--- a/results/mp/tinybert/dilemma/confidence/210/stop-words-topk-masking-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/210/stop-words-topk-masking-0.5/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="62">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,69 +40,60 @@
     <t>name</t>
   </si>
   <si>
+    <t>illegal</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
     <t>worst</t>
   </si>
   <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>evil</t>
-  </si>
-  <si>
     <t>terrifying</t>
   </si>
   <si>
     <t>fucking</t>
   </si>
   <si>
-    <t>uncomfortable</t>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>addicted</t>
   </si>
   <si>
     <t>fucked</t>
   </si>
   <si>
-    <t>addicted</t>
-  </si>
-  <si>
-    <t>disturbing</t>
-  </si>
-  <si>
-    <t>dangerous</t>
+    <t>scary</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>hate</t>
+  </si>
+  <si>
+    <t>shit</t>
   </si>
   <si>
     <t>crazy</t>
   </si>
   <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>hate</t>
-  </si>
-  <si>
-    <t>fuck</t>
+    <t>dark</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>bad</t>
   </si>
   <si>
     <t>behind</t>
   </si>
   <si>
-    <t>scary</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>dark</t>
-  </si>
-  <si>
     <t>seriously</t>
   </si>
   <si>
-    <t>bad</t>
-  </si>
-  <si>
     <t>fake</t>
   </si>
   <si>
@@ -112,42 +103,45 @@
     <t>negative</t>
   </si>
   <si>
+    <t>amazing</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>amazing</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
     <t>good</t>
   </si>
   <si>
-    <t>interesting</t>
+    <t>powerful</t>
   </si>
   <si>
     <t>important</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>powerful</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
     <t>worth</t>
   </si>
   <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>first</t>
-  </si>
-  <si>
     <t>new</t>
   </si>
   <si>
@@ -157,46 +151,49 @@
     <t>highly</t>
   </si>
   <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>right</t>
   </si>
   <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>recommend</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>much</t>
+    <t>true</t>
   </si>
   <si>
     <t>really</t>
   </si>
   <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>recommend</t>
+    <t>twitter</t>
   </si>
   <si>
     <t>netflix</t>
   </si>
   <si>
-    <t>twitter</t>
+    <t>documentary</t>
+  </si>
+  <si>
+    <t>media</t>
+  </si>
+  <si>
+    <t>dilemma</t>
+  </si>
+  <si>
+    <t>watching</t>
   </si>
   <si>
     <t>watch</t>
   </si>
   <si>
-    <t>documentary</t>
-  </si>
-  <si>
-    <t>media</t>
-  </si>
-  <si>
-    <t>watching</t>
-  </si>
-  <si>
     <t>…</t>
-  </si>
-  <si>
-    <t>dilemma</t>
   </si>
   <si>
     <t>’</t>
@@ -560,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q32"/>
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -568,10 +565,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -629,13 +626,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.9519230769230769</v>
       </c>
       <c r="C3">
-        <v>30</v>
+        <v>99</v>
       </c>
       <c r="D3">
-        <v>30</v>
+        <v>99</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -647,19 +644,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K3">
-        <v>0.9</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="L3">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="M3">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -671,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -679,13 +676,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9519230769230769</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C4">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="D4">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -697,19 +694,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K4">
-        <v>0.8888888888888888</v>
+        <v>0.9</v>
       </c>
       <c r="L4">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="M4">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -721,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -729,13 +726,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9230769230769231</v>
+        <v>0.9</v>
       </c>
       <c r="C5">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D5">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -747,19 +744,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K5">
-        <v>0.86</v>
+        <v>0.9</v>
       </c>
       <c r="L5">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M5">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -771,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -779,13 +776,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9090909090909091</v>
+        <v>0.8939393939393939</v>
       </c>
       <c r="C6">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D6">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -797,19 +794,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K6">
-        <v>0.76</v>
+        <v>0.7543859649122807</v>
       </c>
       <c r="L6">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="M6">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -821,7 +818,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -829,13 +826,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.875</v>
+        <v>0.8125</v>
       </c>
       <c r="C7">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -847,19 +844,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K7">
-        <v>0.7543859649122807</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="L7">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="M7">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -871,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -879,38 +876,38 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8666666666666667</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C8">
+        <v>15</v>
+      </c>
+      <c r="D8">
+        <v>15</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>4</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K8">
+        <v>0.7222222222222222</v>
+      </c>
+      <c r="L8">
         <v>13</v>
       </c>
-      <c r="D8">
+      <c r="M8">
         <v>13</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>2</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K8">
-        <v>0.7333333333333333</v>
-      </c>
-      <c r="L8">
-        <v>44</v>
-      </c>
-      <c r="M8">
-        <v>44</v>
-      </c>
       <c r="N8">
         <v>1</v>
       </c>
@@ -921,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -929,13 +926,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7647058823529411</v>
+        <v>0.725</v>
       </c>
       <c r="C9">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="D9">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -947,19 +944,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K9">
-        <v>0.6896551724137931</v>
+        <v>0.72</v>
       </c>
       <c r="L9">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="M9">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -971,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -979,13 +976,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.75</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="C10">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D10">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -997,19 +994,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K10">
-        <v>0.6842105263157895</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="L10">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M10">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1021,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1029,13 +1026,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.75</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C11">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="D11">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1047,19 +1044,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K11">
-        <v>0.5925925925925926</v>
+        <v>0.6166666666666667</v>
       </c>
       <c r="L11">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="M11">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1071,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1079,38 +1076,38 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7368421052631579</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="C12">
+        <v>15</v>
+      </c>
+      <c r="D12">
+        <v>15</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>8</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K12">
+        <v>0.5185185185185185</v>
+      </c>
+      <c r="L12">
         <v>14</v>
       </c>
-      <c r="D12">
+      <c r="M12">
         <v>14</v>
       </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>5</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K12">
-        <v>0.4444444444444444</v>
-      </c>
-      <c r="L12">
-        <v>16</v>
-      </c>
-      <c r="M12">
-        <v>16</v>
-      </c>
       <c r="N12">
         <v>1</v>
       </c>
@@ -1121,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1129,13 +1126,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7142857142857143</v>
+        <v>0.65</v>
       </c>
       <c r="C13">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D13">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1147,19 +1144,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K13">
-        <v>0.4375</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="L13">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="M13">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1171,7 +1168,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1179,13 +1176,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.7058823529411765</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="C14">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="D14">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1197,19 +1194,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K14">
-        <v>0.4242424242424243</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="L14">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="M14">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1221,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1229,38 +1226,38 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.7</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="C15">
+        <v>22</v>
+      </c>
+      <c r="D15">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>13</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K15">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="L15">
         <v>14</v>
       </c>
-      <c r="D15">
+      <c r="M15">
         <v>14</v>
       </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>6</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K15">
-        <v>0.3898305084745763</v>
-      </c>
-      <c r="L15">
-        <v>23</v>
-      </c>
-      <c r="M15">
-        <v>23</v>
-      </c>
       <c r="N15">
         <v>1</v>
       </c>
@@ -1271,7 +1268,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>36</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1279,13 +1276,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6956521739130435</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="C16">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D16">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1297,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K16">
-        <v>0.3132969034608379</v>
+        <v>0.3728813559322034</v>
       </c>
       <c r="L16">
-        <v>344</v>
+        <v>22</v>
       </c>
       <c r="M16">
-        <v>344</v>
+        <v>22</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1321,7 +1318,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>754</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1329,13 +1326,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6538461538461539</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="C17">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D17">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1347,19 +1344,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K17">
-        <v>0.2950819672131147</v>
+        <v>0.2914389799635702</v>
       </c>
       <c r="L17">
-        <v>18</v>
+        <v>320</v>
       </c>
       <c r="M17">
-        <v>18</v>
+        <v>320</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1371,7 +1368,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>43</v>
+        <v>778</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1379,13 +1376,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.644927536231884</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C18">
-        <v>89</v>
+        <v>21</v>
       </c>
       <c r="D18">
-        <v>89</v>
+        <v>21</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1397,19 +1394,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K18">
-        <v>0.2407407407407407</v>
+        <v>0.2786885245901639</v>
       </c>
       <c r="L18">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="M18">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1421,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1429,13 +1426,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.6382978723404256</v>
+        <v>0.5</v>
       </c>
       <c r="C19">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="D19">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1447,19 +1444,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K19">
-        <v>0.2191780821917808</v>
+        <v>0.2608695652173913</v>
       </c>
       <c r="L19">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="M19">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1471,7 +1468,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>57</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1479,13 +1476,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.625</v>
+        <v>0.5</v>
       </c>
       <c r="C20">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D20">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1497,19 +1494,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K20">
-        <v>0.2153846153846154</v>
+        <v>0.2407407407407407</v>
       </c>
       <c r="L20">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M20">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1521,7 +1518,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1529,13 +1526,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.6071428571428571</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="C21">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D21">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1547,19 +1544,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K21">
-        <v>0.2105263157894737</v>
+        <v>0.2153846153846154</v>
       </c>
       <c r="L21">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="M21">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1571,7 +1568,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>75</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1579,187 +1576,115 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5357142857142857</v>
+        <v>0.05172413793103448</v>
       </c>
       <c r="C22">
         <v>15</v>
       </c>
       <c r="D22">
+        <v>24</v>
+      </c>
+      <c r="E22">
+        <v>0.38</v>
+      </c>
+      <c r="F22">
+        <v>0.62</v>
+      </c>
+      <c r="G22" t="b">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>275</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K22">
+        <v>0.2117647058823529</v>
+      </c>
+      <c r="L22">
+        <v>18</v>
+      </c>
+      <c r="M22">
+        <v>18</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="J23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K23">
+        <v>0.2054794520547945</v>
+      </c>
+      <c r="L23">
         <v>15</v>
       </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>13</v>
-      </c>
-      <c r="J22" s="1" t="s">
+      <c r="M23">
+        <v>15</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="J24" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K24">
+        <v>0.1971830985915493</v>
+      </c>
+      <c r="L24">
+        <v>14</v>
+      </c>
+      <c r="M24">
+        <v>14</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="J25" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K22">
-        <v>0.1830985915492958</v>
-      </c>
-      <c r="L22">
-        <v>13</v>
-      </c>
-      <c r="M22">
-        <v>13</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="A23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23">
-        <v>0.4871794871794872</v>
-      </c>
-      <c r="C23">
-        <v>19</v>
-      </c>
-      <c r="D23">
-        <v>19</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>20</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K23">
-        <v>0.1411764705882353</v>
-      </c>
-      <c r="L23">
-        <v>12</v>
-      </c>
-      <c r="M23">
-        <v>12</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="A24" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24">
-        <v>0.282051282051282</v>
-      </c>
-      <c r="C24">
-        <v>22</v>
-      </c>
-      <c r="D24">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>56</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K24">
-        <v>0.1259259259259259</v>
-      </c>
-      <c r="L24">
-        <v>68</v>
-      </c>
-      <c r="M24">
-        <v>68</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="A25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25">
-        <v>0.05743243243243244</v>
-      </c>
-      <c r="C25">
-        <v>17</v>
-      </c>
-      <c r="D25">
-        <v>20</v>
-      </c>
-      <c r="E25">
-        <v>0.15</v>
-      </c>
-      <c r="F25">
-        <v>0.85</v>
-      </c>
-      <c r="G25" t="b">
-        <v>1</v>
-      </c>
-      <c r="H25">
-        <v>279</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="K25">
-        <v>0.0948905109489051</v>
+        <v>0.1894736842105263</v>
       </c>
       <c r="L25">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M25">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1771,21 +1696,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>124</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K26">
-        <v>0.08603896103896104</v>
+        <v>0.1167883211678832</v>
       </c>
       <c r="L26">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="M26">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1797,21 +1722,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>563</v>
+        <v>121</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K27">
-        <v>0.0812720848056537</v>
+        <v>0.09814814814814815</v>
       </c>
       <c r="L27">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="M27">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1823,21 +1748,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>260</v>
+        <v>487</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K28">
-        <v>0.0783132530120482</v>
+        <v>0.08833922261484099</v>
       </c>
       <c r="L28">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="M28">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1849,21 +1774,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>612</v>
+        <v>258</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K29">
-        <v>0.07038123167155426</v>
+        <v>0.0858433734939759</v>
       </c>
       <c r="L29">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="M29">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1875,21 +1800,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>317</v>
+        <v>607</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K30">
-        <v>0.06451612903225806</v>
+        <v>0.08253968253968254</v>
       </c>
       <c r="L30">
-        <v>112</v>
+        <v>26</v>
       </c>
       <c r="M30">
-        <v>112</v>
+        <v>26</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1901,21 +1826,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>1624</v>
+        <v>289</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K31">
-        <v>0.06349206349206349</v>
+        <v>0.07917888563049853</v>
       </c>
       <c r="L31">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="M31">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1927,33 +1852,85 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>295</v>
+        <v>314</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="K32">
-        <v>0.04615384615384616</v>
+        <v>0.06991869918699187</v>
       </c>
       <c r="L32">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="M32">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="N32">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="O32">
-        <v>0.03000000000000003</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P32" t="b">
         <v>1</v>
       </c>
       <c r="Q32">
-        <v>744</v>
+        <v>572</v>
+      </c>
+    </row>
+    <row r="33" spans="10:17">
+      <c r="J33" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K33">
+        <v>0.0622478386167147</v>
+      </c>
+      <c r="L33">
+        <v>108</v>
+      </c>
+      <c r="M33">
+        <v>109</v>
+      </c>
+      <c r="N33">
+        <v>0.99</v>
+      </c>
+      <c r="O33">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="P33" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q33">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="34" spans="10:17">
+      <c r="J34" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K34">
+        <v>0.05121638924455826</v>
+      </c>
+      <c r="L34">
+        <v>40</v>
+      </c>
+      <c r="M34">
+        <v>40</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>741</v>
       </c>
     </row>
   </sheetData>
